--- a/nhl_stats.xlsx
+++ b/nhl_stats.xlsx
@@ -46120,7 +46120,7 @@
     <row r="841">
       <c r="A841" t="inlineStr">
         <is>
-          <t>Last updated: 23/03/2023 14:36:59</t>
+          <t>Last updated: 23/03/2023 15:27:51</t>
         </is>
       </c>
       <c r="B841" t="inlineStr"/>
